--- a/datamining/final_data/sum2021_nltk.xlsx
+++ b/datamining/final_data/sum2021_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NN2"/>
+  <dimension ref="A1:MR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,1880 +442,1770 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>adjusting</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>accelerate</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>age</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>based</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>adjusting</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>cheerfulness</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>conclude</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>challenges</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>cheerfulness</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>domains</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>conclude</t>
+          <t>education</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>evaluates</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>facilitated</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>evaluates</t>
+          <t>family</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>found</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>facilitated</t>
+          <t>future</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>furthermore</t>
+          <t>grade-based</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>high</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>include</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>incomplete</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>grade-based</t>
+          <t>individually</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>may</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>much</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>incomplete</t>
+          <t>nonaccelerated</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>individually</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>nonaccelerated</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>prior</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>reporting</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>research</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>resilience</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>review</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>scarce</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>reporting</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>resilience</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>social–emotional</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>scarce</t>
+          <t>students</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>self-efficacy</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>social–emotional</t>
+          <t>university</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>well-being</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>years</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>systematic</t>
+          <t>0.86/0.81</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>431</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>432</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>well-being</t>
+          <t>actively</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>also</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>younger</t>
+          <t>although</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>0.86/0.81</t>
+          <t>among</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>articles</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>aware</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>actively</t>
+          <t>biased</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>caused</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>articles</t>
+          <t>contribute</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>control</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>aware</t>
+          <t>controlled</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>biased</t>
+          <t>counteract</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>caused</t>
+          <t>debate</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>debunked</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>design</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>destigmatize</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>dominant</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>controlled</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>counteract</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>debate</t>
+          <t>evidence-based</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>debunked</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>experiments</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>destigmatize</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>group</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>dominant</t>
+          <t>help</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>however</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>evidence-based</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>experiments</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>join</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>media</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>might</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>moderated</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>moderators</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>newspaper</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>nonstereotypic</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>join</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>present</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>prevail</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>public</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>moderated</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>moderators</t>
+          <t>quite</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>randomized</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>recipients</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>newspaper</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>nonstereotypic</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>persons</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>representations</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>prevail</t>
+          <t>respectively</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>results</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>robust</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>quite</t>
+          <t>shape</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>randomized</t>
+          <t>society</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>recipients</t>
+          <t>stereotypes</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>stereotypic</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>reports</t>
+          <t>stigmatization</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>study</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>representations</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>respectively</t>
+          <t>two</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>whereas</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>robust</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>shape</t>
+          <t>−0.54/−0.58</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>stereotypes</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>stereotypic</t>
+          <t>across</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>stigmatization</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>appreciated</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>attend</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>career</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>whereas</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>choosing</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>’</t>
+          <t>chosen</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>−0.54/−0.58</t>
+          <t>college</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>college-going</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>committed</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>consider</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>considerations</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>appreciated</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>attend</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>descriptive</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>choosing</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>chosen</t>
+          <t>early</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>college-going</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>committed</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>comparisons</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>considerations</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>immersion</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>descriptive</t>
+          <t>institution</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>institution-level</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>interactions</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>must</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>flexible</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>options</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>order</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>immersion</t>
+          <t>person-environment</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>influenced</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>institution</t>
+          <t>prestige</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>institution-level</t>
+          <t>process</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>interactions</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>questioned</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>rank-ordered</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>school</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>selective</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>options</t>
+          <t>semistructured</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>seniors</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>six</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>social</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>person-environment</t>
+          <t>sought</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>student-level</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>prestige</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>thematic</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>questioned</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>rank-ordered</t>
+          <t>used</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>50</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>selective</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>semistructured</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>seniors</t>
+          <t>above-level</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>accomplishments</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>add</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>sought</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>student-level</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>back</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>thematic</t>
+          <t>basic</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>behalf</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>categorically</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>conative</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>consequential</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>contributions</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>accomplishments</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>development</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>diversity</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>documented</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>dosage</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>behalf</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>educational/occupational</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>careers</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>categorically</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>conative</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>empirically</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>consequential</t>
+          <t>enhance</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>contributions</t>
+          <t>environmental</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>evaporates</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>evident</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>diversity</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>documented</t>
+          <t>field</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>dosage</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>full</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>educational/occupational</t>
+          <t>general</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>generalizations</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>held</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>empirically</t>
+          <t>impactful</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>enhance</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>interpretive</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>evaporates</t>
+          <t>interventions</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>evident</t>
+          <t>leading</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>exceptionally</t>
+          <t>level</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>life</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>made</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>making</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>generalizations</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>meaningful</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>held</t>
+          <t>meaningfulness</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>impactful</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>multipotentiality</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>interpretive</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>interventions</t>
+          <t>occupational</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>leading</t>
+          <t>one</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>past</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>mathematical</t>
+          <t>precocity</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>meaningful</t>
+          <t>predicting</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>meaningfulness</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>psychometrics</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>multipotentiality</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>range</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>occupational</t>
+          <t>replicated</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>required</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>seeing</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>since</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>span</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>past</t>
+          <t>spatial</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>subsequent</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>precocity</t>
+          <t>sufficient</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>predicting</t>
+          <t>terman</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>probability</t>
+          <t>third</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>three</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>threshold</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>psychometrics</t>
+          <t>top</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>uncovered</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>use</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>replicated</t>
+          <t>value</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>seeing</t>
+          <t>within</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>span</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>spatial</t>
+          <t>100</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>20th</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>academia</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>subsequent</t>
+          <t>appeared</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>sufficient</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>terman</t>
+          <t>bibliometric</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>business</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>century</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>citations</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>threshold</t>
+          <t>cited</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>uncovered</t>
+          <t>differing</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>extends</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>gathered</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>geniusand</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>geniushas</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>geniusstands</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>20th</t>
+          <t>landmark</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>academia</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>m.</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>mapped</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>bibliometric</t>
+          <t>medicine</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>nearly</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>citation</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>citations</t>
+          <t>scholarly</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>cited</t>
+          <t>scholars</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>sciences</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>differing</t>
+          <t>sparked</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>terman'sgenetic</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>extends</t>
+          <t>volumes</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>work</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>gathered</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>geniusand</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>geniushas</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>geniusstands</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>journals</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>landmark</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>lewis</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>m.</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>mapped</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>medicine</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>nearly</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>scholarly</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>scholars</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>sciences</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>sparked</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>terman'sgenetic</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>volumes</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>works</t>
         </is>
@@ -2329,700 +2219,700 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="F2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BK2" t="n">
         <v>0.21</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="BL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CY2" t="n">
         <v>0.16</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="CZ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EW2" t="n">
         <v>0.16</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="EX2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HN2" t="n">
         <v>0.15</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="HO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HZ2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="IA2" t="n">
         <v>0.07000000000000001</v>
@@ -3040,10 +2930,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="IH2" t="n">
         <v>0.07000000000000001</v>
@@ -3067,7 +2957,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="IP2" t="n">
         <v>0.07000000000000001</v>
@@ -3079,275 +2969,275 @@
         <v>0.15</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="IT2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="IU2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="LC2" t="n">
         <v>0.14</v>
       </c>
-      <c r="IV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JG2" t="n">
+      <c r="LD2" t="n">
         <v>0.15</v>
       </c>
-      <c r="JH2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KR2" t="n">
+      <c r="LE2" t="n">
         <v>0.22</v>
       </c>
-      <c r="KS2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="LF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="MA2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MD2" t="n">
         <v>0.22</v>
       </c>
-      <c r="MB2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>0.11</v>
-      </c>
       <c r="ME2" t="n">
         <v>0.11</v>
       </c>
@@ -3355,31 +3245,31 @@
         <v>0.11</v>
       </c>
       <c r="MG2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="MM2" t="n">
         <v>0.22</v>
       </c>
-      <c r="MH2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>0.11</v>
-      </c>
       <c r="MN2" t="n">
         <v>0.11</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="MP2" t="n">
         <v>0.11</v>
@@ -3388,72 +3278,6 @@
         <v>0.11</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="NN2" t="n">
         <v>0.11</v>
       </c>
     </row>
